--- a/seguimiento/ProduccionDigital/SegDigital_CS_07_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_07_01_CO.xlsx
@@ -5,16 +5,16 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\CienciasSociales\seguimiento\ProduccionDigital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21721" windowHeight="9718"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -174,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +236,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -292,7 +300,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -329,15 +337,6 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -352,6 +351,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -639,21 +650,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G18" sqref="G18"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.86328125" style="1"/>
+    <col min="8" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.100000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
@@ -661,7 +672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="21.15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -704,329 +715,383 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.85" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="21">
         <v>42095.5625</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="21">
         <v>42095.565972222219</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="21">
         <v>42095.576388888891</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12">
+        <v>42098.708333333336</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="28.65" x14ac:dyDescent="0.45">
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I5" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="28.65" x14ac:dyDescent="0.45">
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I6" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="9"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I7" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="9"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I8" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="9"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I9" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="9"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I10" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I11" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I12" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I13" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K13" s="22"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I14" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" ht="28.65" x14ac:dyDescent="0.45">
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="9"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I15" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="9"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I16" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="9"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="12">
+        <v>42098.708333333336</v>
+      </c>
+      <c r="I17" s="12">
+        <v>42100.497916666667</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1038,7 +1103,7 @@
     <mergeCell ref="G4:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_07_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_07_01_CO.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
+    <workbookView xWindow="9360" yWindow="1240" windowWidth="23580" windowHeight="12880"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -165,6 +160,27 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Cambio ficha de profesor y estudiante / Cambio video audio latino</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Pendiente Editor SOC</t>
+  </si>
+  <si>
+    <t>"Entregar a mano" por "Entregar por escrito"</t>
+  </si>
+  <si>
+    <t>Cambio video audio latino / Video no carga</t>
+  </si>
+  <si>
+    <t>Pendiente cambio ficha de profesor y alumno</t>
   </si>
 </sst>
 </file>
@@ -174,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,15 +253,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +290,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -294,13 +320,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,22 +426,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="25">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -638,7 +741,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,25 +749,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="1"/>
+    <col min="8" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
@@ -672,7 +777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -707,42 +812,54 @@
         <v>28</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="15">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="25">
         <v>42095.5625</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="25">
         <v>42095.565972222219</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="25">
         <v>42095.576388888891</v>
       </c>
       <c r="H4" s="12">
         <v>42098.708333333336</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="12">
+        <v>42137.204861111109</v>
+      </c>
+      <c r="J4" s="12">
+        <v>42137.791666666664</v>
+      </c>
+      <c r="K4" s="19">
+        <v>42137.791666666664</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -755,21 +872,24 @@
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I5" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="J5" s="12"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:16" ht="28">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -782,21 +902,28 @@
       <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I6" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J6" s="12">
+        <v>42150.333333333336</v>
+      </c>
+      <c r="K6" s="19">
+        <v>42150.916666666664</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -809,21 +936,28 @@
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I7" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="12">
+        <v>42150.333333333336</v>
+      </c>
+      <c r="K7" s="20">
+        <v>42150.916666666664</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -836,21 +970,24 @@
       <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I8" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="12"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -863,21 +1000,24 @@
       <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I9" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" s="12"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -890,21 +1030,24 @@
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I10" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J10" s="12"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -917,21 +1060,28 @@
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I11" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11" s="12">
+        <v>42150.333333333336</v>
+      </c>
+      <c r="K11" s="20">
+        <v>42150.916666666664</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -944,21 +1094,28 @@
       <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I12" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12" s="12">
+        <v>42150.333333333336</v>
+      </c>
+      <c r="K12" s="20">
+        <v>42150.916666666664</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -971,21 +1128,28 @@
       <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I13" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" s="12">
+        <v>42150.333333333336</v>
+      </c>
+      <c r="K13" s="20">
+        <v>42150.916666666664</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -998,21 +1162,28 @@
       <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I14" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="J14" s="12">
+        <v>42150.333333333336</v>
+      </c>
+      <c r="K14" s="20">
+        <v>42150.916666666664</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:16" ht="28">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -1025,21 +1196,28 @@
       <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I15" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J15" s="12">
+        <v>42150.333333333336</v>
+      </c>
+      <c r="K15" s="20">
+        <v>42150.916666666664</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1052,21 +1230,24 @@
       <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I16" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J16" s="12"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1079,31 +1260,38 @@
       <c r="D17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I17" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="21"/>
+      <c r="J17" s="12">
+        <v>42150.333333333336</v>
+      </c>
+      <c r="K17" s="20">
+        <v>42150.916666666664</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="L4:L17"/>
     <mergeCell ref="M4:M17"/>
+    <mergeCell ref="N4:N17"/>
     <mergeCell ref="E4:E17"/>
     <mergeCell ref="F4:F17"/>
     <mergeCell ref="G4:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_07_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_07_01_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>Cambio ficha de profesor y estudiante / Cambio video audio latino</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -180,7 +177,7 @@
     <t>Cambio video audio latino / Video no carga</t>
   </si>
   <si>
-    <t>Pendiente cambio ficha de profesor y alumno</t>
+    <t>Cambio video audio latino</t>
   </si>
 </sst>
 </file>
@@ -347,7 +344,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -373,8 +370,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -432,9 +445,6 @@
     <xf numFmtId="22" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -446,7 +456,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="41">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -459,6 +469,14 @@
     <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -471,6 +489,14 @@
     <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,7 +767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -752,8 +778,8 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L15" sqref="L15"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -824,21 +850,21 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>42095.5625</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>42095.565972222219</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>42095.576388888891</v>
       </c>
       <c r="H4" s="12">
@@ -854,10 +880,10 @@
         <v>42137.791666666664</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
+        <v>47</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="10" t="s">
@@ -872,22 +898,26 @@
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I5" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="J5" s="12">
+        <v>42152.980555555558</v>
+      </c>
+      <c r="K5" s="12">
+        <v>42152.980555555558</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:16" ht="28">
       <c r="A6" s="10" t="s">
@@ -902,9 +932,9 @@
       <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="12">
         <v>42098.708333333336</v>
       </c>
@@ -917,11 +947,11 @@
       <c r="K6" s="19">
         <v>42150.916666666664</v>
       </c>
-      <c r="L6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
+      <c r="L6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="10" t="s">
@@ -936,9 +966,9 @@
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="12">
         <v>42098.708333333336</v>
       </c>
@@ -951,11 +981,11 @@
       <c r="K7" s="20">
         <v>42150.916666666664</v>
       </c>
-      <c r="L7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
+      <c r="L7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="10" t="s">
@@ -970,22 +1000,26 @@
       <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I8" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="J8" s="12">
+        <v>42152.98541666667</v>
+      </c>
+      <c r="K8" s="12">
+        <v>42152.98541666667</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="10" t="s">
@@ -1000,22 +1034,26 @@
       <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I9" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
+      <c r="J9" s="12">
+        <v>42152.990277777775</v>
+      </c>
+      <c r="K9" s="12">
+        <v>42152.990277777775</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="10" t="s">
@@ -1030,22 +1068,26 @@
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="12">
         <v>42098.708333333336</v>
       </c>
       <c r="I10" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
+      <c r="J10" s="12">
+        <v>42152.993055555555</v>
+      </c>
+      <c r="K10" s="12">
+        <v>42152.993055555555</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
@@ -1060,9 +1102,9 @@
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="12">
         <v>42098.708333333336</v>
       </c>
@@ -1075,11 +1117,11 @@
       <c r="K11" s="20">
         <v>42150.916666666664</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
+      <c r="L11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="10" t="s">
@@ -1094,9 +1136,9 @@
       <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="12">
         <v>42098.708333333336</v>
       </c>
@@ -1109,11 +1151,11 @@
       <c r="K12" s="20">
         <v>42150.916666666664</v>
       </c>
-      <c r="L12" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
+      <c r="L12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="10" t="s">
@@ -1128,9 +1170,9 @@
       <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="12">
         <v>42098.708333333336</v>
       </c>
@@ -1143,11 +1185,11 @@
       <c r="K13" s="20">
         <v>42150.916666666664</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
+      <c r="L13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="10" t="s">
@@ -1162,9 +1204,9 @@
       <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="12">
         <v>42098.708333333336</v>
       </c>
@@ -1177,11 +1219,11 @@
       <c r="K14" s="20">
         <v>42150.916666666664</v>
       </c>
-      <c r="L14" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
+      <c r="L14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:16" ht="28">
       <c r="A15" s="10" t="s">
@@ -1196,9 +1238,9 @@
       <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="12">
         <v>42098.708333333336</v>
       </c>
@@ -1211,11 +1253,11 @@
       <c r="K15" s="20">
         <v>42150.916666666664</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
+      <c r="L15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="10" t="s">
@@ -1230,9 +1272,9 @@
       <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="12">
         <v>42098.708333333336</v>
       </c>
@@ -1241,11 +1283,11 @@
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
+      <c r="L16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
@@ -1260,9 +1302,9 @@
       <c r="D17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="12">
         <v>42098.708333333336</v>
       </c>
@@ -1275,11 +1317,11 @@
       <c r="K17" s="20">
         <v>42150.916666666664</v>
       </c>
-      <c r="L17" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
+      <c r="L17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/seguimiento/ProduccionDigital/SegDigital_CS_07_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_07_01_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="1240" windowWidth="23580" windowHeight="12880"/>
+    <workbookView xWindow="4100" yWindow="3200" windowWidth="23580" windowHeight="12880"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>Pendiente Editor SOC</t>
   </si>
   <si>
     <t>"Entregar a mano" por "Entregar por escrito"</t>
@@ -294,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -330,22 +327,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,14 +439,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="47">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -477,6 +467,9 @@
     <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -497,6 +490,9 @@
     <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -767,7 +763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,8 +774,8 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L16" sqref="L16"/>
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -882,7 +878,9 @@
       <c r="L4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="23"/>
+      <c r="M4" s="23">
+        <v>42157.364583333336</v>
+      </c>
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:16">
@@ -914,7 +912,7 @@
         <v>42152.980555555558</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="23"/>
       <c r="N5" s="24"/>
@@ -948,7 +946,7 @@
         <v>42150.916666666664</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="23"/>
       <c r="N6" s="24"/>
@@ -1016,7 +1014,7 @@
         <v>42152.98541666667</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="24"/>
@@ -1050,7 +1048,7 @@
         <v>42152.990277777775</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="24"/>
@@ -1084,7 +1082,7 @@
         <v>42152.993055555555</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="24"/>
@@ -1118,7 +1116,7 @@
         <v>42150.916666666664</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11" s="23"/>
       <c r="N11" s="24"/>
@@ -1152,7 +1150,7 @@
         <v>42150.916666666664</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="24"/>
@@ -1220,7 +1218,7 @@
         <v>42150.916666666664</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M14" s="23"/>
       <c r="N14" s="24"/>
@@ -1254,7 +1252,7 @@
         <v>42150.916666666664</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="24"/>
@@ -1281,10 +1279,14 @@
       <c r="I16" s="12">
         <v>42100.497916666667</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="20"/>
+      <c r="J16" s="12">
+        <v>42150.333333333336</v>
+      </c>
+      <c r="K16" s="20">
+        <v>42157.354166666664</v>
+      </c>
       <c r="L16" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="24"/>
